--- a/Invoice/COM1010924.xlsx
+++ b/Invoice/COM1010924.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\SEG\docs\Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD48BC14-0E5E-46B6-A113-6037C02EC5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{51F8EDE2-BD27-E24A-A6D0-67CA308F39A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -704,23 +704,23 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1193,32 +1193,32 @@
   </sheetPr>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94:E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="106.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.609375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="106.67578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="4" max="4" width="23.9453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.39453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21.7890625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="40.48828125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.01171875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.01171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E1" s="4"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E2" s="4"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="104.25" customHeight="1">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -1230,11 +1230,11 @@
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="34.5" customHeight="1">
+    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
@@ -1250,88 +1250,88 @@
         <v>45360</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="38" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="43" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="38" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="41" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="38" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="39" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1340,7 +1340,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
         <v>34</v>
       </c>
@@ -1372,17 +1372,15 @@
         <v>1</v>
       </c>
       <c r="E15" s="21">
-        <v>78000</v>
-      </c>
-      <c r="F15" s="37">
-        <v>0.2</v>
-      </c>
+        <v>34875</v>
+      </c>
+      <c r="F15" s="37"/>
       <c r="G15" s="21">
         <f>(E15*D15)-(E15*F15)</f>
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>34875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>33</v>
       </c>
@@ -1393,17 +1391,15 @@
         <v>1</v>
       </c>
       <c r="E16" s="21">
-        <v>78000</v>
-      </c>
-      <c r="F16" s="37">
-        <v>0.2</v>
-      </c>
+        <v>34875</v>
+      </c>
+      <c r="F16" s="37"/>
       <c r="G16" s="21">
         <f t="shared" ref="G16:G79" si="0">(E16*D16)-(E16*F16)</f>
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>34875</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
         <v>32</v>
       </c>
@@ -1414,17 +1410,15 @@
         <v>1</v>
       </c>
       <c r="E17" s="21">
-        <v>78000</v>
-      </c>
-      <c r="F17" s="37">
-        <v>0.2</v>
-      </c>
+        <v>34875</v>
+      </c>
+      <c r="F17" s="37"/>
       <c r="G17" s="21">
         <f t="shared" si="0"/>
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>34875</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
         <v>31</v>
       </c>
@@ -1435,17 +1429,15 @@
         <v>1</v>
       </c>
       <c r="E18" s="21">
-        <v>78000</v>
-      </c>
-      <c r="F18" s="37">
-        <v>0.2</v>
-      </c>
+        <v>34875</v>
+      </c>
+      <c r="F18" s="37"/>
       <c r="G18" s="21">
         <f t="shared" si="0"/>
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1">
+        <v>34875</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
         <v>30</v>
       </c>
@@ -1456,17 +1448,15 @@
         <v>1</v>
       </c>
       <c r="E19" s="21">
-        <v>78000</v>
-      </c>
-      <c r="F19" s="37">
-        <v>0.2</v>
-      </c>
+        <v>34875</v>
+      </c>
+      <c r="F19" s="37"/>
       <c r="G19" s="21">
         <f t="shared" si="0"/>
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="13.5" customHeight="1">
+        <v>34875</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
         <v>29</v>
       </c>
@@ -1477,17 +1467,15 @@
         <v>1</v>
       </c>
       <c r="E20" s="21">
-        <v>78000</v>
-      </c>
-      <c r="F20" s="37">
-        <v>0.2</v>
-      </c>
+        <v>34875</v>
+      </c>
+      <c r="F20" s="37"/>
       <c r="G20" s="21">
         <f t="shared" si="0"/>
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1">
+        <v>34875</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
         <v>28</v>
       </c>
@@ -1498,17 +1486,15 @@
         <v>1</v>
       </c>
       <c r="E21" s="21">
-        <v>78000</v>
-      </c>
-      <c r="F21" s="37">
-        <v>0.2</v>
-      </c>
+        <v>34875</v>
+      </c>
+      <c r="F21" s="37"/>
       <c r="G21" s="21">
         <f t="shared" si="0"/>
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>34875</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="20" t="s">
         <v>27</v>
       </c>
@@ -1519,17 +1505,15 @@
         <v>1</v>
       </c>
       <c r="E22" s="21">
-        <v>78000</v>
-      </c>
-      <c r="F22" s="37">
-        <v>0.2</v>
-      </c>
+        <v>34875</v>
+      </c>
+      <c r="F22" s="37"/>
       <c r="G22" s="21">
         <f t="shared" si="0"/>
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>34875</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>26</v>
       </c>
@@ -1540,17 +1524,15 @@
         <v>1</v>
       </c>
       <c r="E23" s="21">
-        <v>78000</v>
-      </c>
-      <c r="F23" s="37">
-        <v>0.2</v>
-      </c>
+        <v>34875</v>
+      </c>
+      <c r="F23" s="37"/>
       <c r="G23" s="21">
         <f t="shared" si="0"/>
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <v>34875</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>25</v>
       </c>
@@ -1561,17 +1543,15 @@
         <v>1</v>
       </c>
       <c r="E24" s="21">
-        <v>78000</v>
-      </c>
-      <c r="F24" s="37">
-        <v>0.2</v>
-      </c>
+        <v>34875</v>
+      </c>
+      <c r="F24" s="37"/>
       <c r="G24" s="21">
         <f t="shared" si="0"/>
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="16.5" customHeight="1">
+        <v>34875</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="22" t="s">
         <v>39</v>
       </c>
@@ -1582,17 +1562,15 @@
         <v>1</v>
       </c>
       <c r="E25" s="21">
-        <v>83000</v>
-      </c>
-      <c r="F25" s="37">
-        <v>0.2</v>
-      </c>
+        <v>37200</v>
+      </c>
+      <c r="F25" s="37"/>
       <c r="G25" s="21">
         <f t="shared" si="0"/>
-        <v>66400</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="22" t="s">
         <v>38</v>
       </c>
@@ -1603,17 +1581,15 @@
         <v>1</v>
       </c>
       <c r="E26" s="21">
-        <v>83000</v>
-      </c>
-      <c r="F26" s="37">
-        <v>0.2</v>
-      </c>
+        <v>37200</v>
+      </c>
+      <c r="F26" s="37"/>
       <c r="G26" s="21">
         <f t="shared" si="0"/>
-        <v>66400</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="22" t="s">
         <v>37</v>
       </c>
@@ -1624,17 +1600,15 @@
         <v>1</v>
       </c>
       <c r="E27" s="21">
-        <v>83000</v>
-      </c>
-      <c r="F27" s="37">
-        <v>0.2</v>
-      </c>
+        <v>37200</v>
+      </c>
+      <c r="F27" s="37"/>
       <c r="G27" s="21">
         <f t="shared" si="0"/>
-        <v>66400</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="22" t="s">
         <v>36</v>
       </c>
@@ -1645,17 +1619,15 @@
         <v>1</v>
       </c>
       <c r="E28" s="21">
-        <v>83000</v>
-      </c>
-      <c r="F28" s="37">
-        <v>0.2</v>
-      </c>
+        <v>37200</v>
+      </c>
+      <c r="F28" s="37"/>
       <c r="G28" s="21">
         <f t="shared" si="0"/>
-        <v>66400</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="s">
         <v>35</v>
       </c>
@@ -1666,17 +1638,15 @@
         <v>1</v>
       </c>
       <c r="E29" s="21">
-        <v>83000</v>
-      </c>
-      <c r="F29" s="37">
-        <v>0.2</v>
-      </c>
+        <v>37200</v>
+      </c>
+      <c r="F29" s="37"/>
       <c r="G29" s="21">
         <f t="shared" si="0"/>
-        <v>66400</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
         <v>44</v>
       </c>
@@ -1687,17 +1657,15 @@
         <v>1</v>
       </c>
       <c r="E30" s="21">
-        <v>83000</v>
-      </c>
-      <c r="F30" s="37">
-        <v>0.2</v>
-      </c>
+        <v>37200</v>
+      </c>
+      <c r="F30" s="37"/>
       <c r="G30" s="21">
         <f t="shared" si="0"/>
-        <v>66400</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
         <v>43</v>
       </c>
@@ -1708,17 +1676,15 @@
         <v>1</v>
       </c>
       <c r="E31" s="21">
-        <v>83000</v>
-      </c>
-      <c r="F31" s="37">
-        <v>0.2</v>
-      </c>
+        <v>37200</v>
+      </c>
+      <c r="F31" s="37"/>
       <c r="G31" s="21">
         <f t="shared" si="0"/>
-        <v>66400</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
         <v>42</v>
       </c>
@@ -1729,17 +1695,15 @@
         <v>1</v>
       </c>
       <c r="E32" s="21">
-        <v>83000</v>
-      </c>
-      <c r="F32" s="37">
-        <v>0.2</v>
-      </c>
+        <v>37200</v>
+      </c>
+      <c r="F32" s="37"/>
       <c r="G32" s="21">
         <f t="shared" si="0"/>
-        <v>66400</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="22" t="s">
         <v>41</v>
       </c>
@@ -1750,17 +1714,15 @@
         <v>1</v>
       </c>
       <c r="E33" s="21">
-        <v>83000</v>
-      </c>
-      <c r="F33" s="37">
-        <v>0.2</v>
-      </c>
+        <v>37200</v>
+      </c>
+      <c r="F33" s="37"/>
       <c r="G33" s="21">
         <f t="shared" si="0"/>
-        <v>66400</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
         <v>40</v>
       </c>
@@ -1771,17 +1733,15 @@
         <v>1</v>
       </c>
       <c r="E34" s="21">
-        <v>83000</v>
-      </c>
-      <c r="F34" s="37">
-        <v>0.2</v>
-      </c>
+        <v>37200</v>
+      </c>
+      <c r="F34" s="37"/>
       <c r="G34" s="21">
         <f t="shared" si="0"/>
-        <v>66400</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="22" t="s">
         <v>47</v>
       </c>
@@ -1792,17 +1752,15 @@
         <v>1</v>
       </c>
       <c r="E35" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F35" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F35" s="37"/>
       <c r="G35" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="22" t="s">
         <v>46</v>
       </c>
@@ -1813,17 +1771,15 @@
         <v>1</v>
       </c>
       <c r="E36" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F36" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F36" s="37"/>
       <c r="G36" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="22" t="s">
         <v>45</v>
       </c>
@@ -1834,17 +1790,15 @@
         <v>1</v>
       </c>
       <c r="E37" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F37" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F37" s="37"/>
       <c r="G37" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="22" t="s">
         <v>50</v>
       </c>
@@ -1855,17 +1809,15 @@
         <v>1</v>
       </c>
       <c r="E38" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F38" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F38" s="37"/>
       <c r="G38" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="22" t="s">
         <v>49</v>
       </c>
@@ -1876,17 +1828,15 @@
         <v>1</v>
       </c>
       <c r="E39" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F39" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F39" s="37"/>
       <c r="G39" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="22" t="s">
         <v>48</v>
       </c>
@@ -1897,17 +1847,15 @@
         <v>1</v>
       </c>
       <c r="E40" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F40" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F40" s="37"/>
       <c r="G40" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="22" t="s">
         <v>56</v>
       </c>
@@ -1918,17 +1866,15 @@
         <v>1</v>
       </c>
       <c r="E41" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F41" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F41" s="37"/>
       <c r="G41" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="22" t="s">
         <v>55</v>
       </c>
@@ -1939,17 +1885,15 @@
         <v>1</v>
       </c>
       <c r="E42" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F42" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F42" s="37"/>
       <c r="G42" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="22" t="s">
         <v>54</v>
       </c>
@@ -1960,17 +1904,15 @@
         <v>1</v>
       </c>
       <c r="E43" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F43" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F43" s="37"/>
       <c r="G43" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="22" t="s">
         <v>53</v>
       </c>
@@ -1981,17 +1923,15 @@
         <v>1</v>
       </c>
       <c r="E44" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F44" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F44" s="37"/>
       <c r="G44" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="22" t="s">
         <v>52</v>
       </c>
@@ -2002,17 +1942,15 @@
         <v>1</v>
       </c>
       <c r="E45" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F45" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F45" s="37"/>
       <c r="G45" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="22" t="s">
         <v>51</v>
       </c>
@@ -2023,17 +1961,15 @@
         <v>1</v>
       </c>
       <c r="E46" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F46" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F46" s="37"/>
       <c r="G46" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="22" t="s">
         <v>61</v>
       </c>
@@ -2044,17 +1980,15 @@
         <v>1</v>
       </c>
       <c r="E47" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F47" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F47" s="37"/>
       <c r="G47" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="22" t="s">
         <v>60</v>
       </c>
@@ -2065,17 +1999,15 @@
         <v>1</v>
       </c>
       <c r="E48" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F48" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F48" s="37"/>
       <c r="G48" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="22" t="s">
         <v>59</v>
       </c>
@@ -2086,17 +2018,15 @@
         <v>1</v>
       </c>
       <c r="E49" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F49" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F49" s="37"/>
       <c r="G49" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="22" t="s">
         <v>58</v>
       </c>
@@ -2107,17 +2037,15 @@
         <v>1</v>
       </c>
       <c r="E50" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F50" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F50" s="37"/>
       <c r="G50" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="22" t="s">
         <v>57</v>
       </c>
@@ -2128,17 +2056,15 @@
         <v>1</v>
       </c>
       <c r="E51" s="21">
-        <v>88000</v>
-      </c>
-      <c r="F51" s="37">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F51" s="37"/>
       <c r="G51" s="21">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="22" t="s">
         <v>71</v>
       </c>
@@ -2149,17 +2075,15 @@
         <v>1</v>
       </c>
       <c r="E52" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F52" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F52" s="37"/>
       <c r="G52" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="22" t="s">
         <v>70</v>
       </c>
@@ -2170,17 +2094,15 @@
         <v>1</v>
       </c>
       <c r="E53" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F53" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F53" s="37"/>
       <c r="G53" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="22" t="s">
         <v>69</v>
       </c>
@@ -2191,17 +2113,15 @@
         <v>1</v>
       </c>
       <c r="E54" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F54" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F54" s="37"/>
       <c r="G54" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="22" t="s">
         <v>68</v>
       </c>
@@ -2212,17 +2132,15 @@
         <v>1</v>
       </c>
       <c r="E55" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F55" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F55" s="37"/>
       <c r="G55" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="22" t="s">
         <v>67</v>
       </c>
@@ -2233,17 +2151,15 @@
         <v>1</v>
       </c>
       <c r="E56" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F56" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F56" s="37"/>
       <c r="G56" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="22" t="s">
         <v>66</v>
       </c>
@@ -2254,17 +2170,15 @@
         <v>1</v>
       </c>
       <c r="E57" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F57" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F57" s="37"/>
       <c r="G57" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="22" t="s">
         <v>65</v>
       </c>
@@ -2275,17 +2189,15 @@
         <v>1</v>
       </c>
       <c r="E58" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F58" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F58" s="37"/>
       <c r="G58" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="22" t="s">
         <v>64</v>
       </c>
@@ -2296,17 +2208,15 @@
         <v>1</v>
       </c>
       <c r="E59" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F59" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F59" s="37"/>
       <c r="G59" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="22" t="s">
         <v>63</v>
       </c>
@@ -2317,17 +2227,15 @@
         <v>1</v>
       </c>
       <c r="E60" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F60" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F60" s="37"/>
       <c r="G60" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="22" t="s">
         <v>62</v>
       </c>
@@ -2338,17 +2246,15 @@
         <v>1</v>
       </c>
       <c r="E61" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F61" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F61" s="37"/>
       <c r="G61" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="22" t="s">
         <v>81</v>
       </c>
@@ -2359,17 +2265,15 @@
         <v>1</v>
       </c>
       <c r="E62" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F62" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F62" s="37"/>
       <c r="G62" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="22" t="s">
         <v>80</v>
       </c>
@@ -2380,17 +2284,15 @@
         <v>1</v>
       </c>
       <c r="E63" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F63" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F63" s="37"/>
       <c r="G63" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="22" t="s">
         <v>79</v>
       </c>
@@ -2401,17 +2303,15 @@
         <v>1</v>
       </c>
       <c r="E64" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F64" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F64" s="37"/>
       <c r="G64" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="22" t="s">
         <v>78</v>
       </c>
@@ -2422,17 +2322,15 @@
         <v>1</v>
       </c>
       <c r="E65" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F65" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F65" s="37"/>
       <c r="G65" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="22" t="s">
         <v>77</v>
       </c>
@@ -2443,17 +2341,15 @@
         <v>1</v>
       </c>
       <c r="E66" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F66" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F66" s="37"/>
       <c r="G66" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="22" t="s">
         <v>76</v>
       </c>
@@ -2464,17 +2360,15 @@
         <v>1</v>
       </c>
       <c r="E67" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F67" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F67" s="37"/>
       <c r="G67" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="22" t="s">
         <v>75</v>
       </c>
@@ -2485,17 +2379,15 @@
         <v>1</v>
       </c>
       <c r="E68" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F68" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F68" s="37"/>
       <c r="G68" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="22" t="s">
         <v>74</v>
       </c>
@@ -2506,17 +2398,15 @@
         <v>1</v>
       </c>
       <c r="E69" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F69" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F69" s="37"/>
       <c r="G69" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="22" t="s">
         <v>73</v>
       </c>
@@ -2527,17 +2417,15 @@
         <v>1</v>
       </c>
       <c r="E70" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F70" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F70" s="37"/>
       <c r="G70" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="22" t="s">
         <v>72</v>
       </c>
@@ -2548,17 +2436,15 @@
         <v>1</v>
       </c>
       <c r="E71" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F71" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F71" s="37"/>
       <c r="G71" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="22" t="s">
         <v>91</v>
       </c>
@@ -2569,17 +2455,15 @@
         <v>1</v>
       </c>
       <c r="E72" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F72" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F72" s="37"/>
       <c r="G72" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="22" t="s">
         <v>90</v>
       </c>
@@ -2590,17 +2474,15 @@
         <v>1</v>
       </c>
       <c r="E73" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F73" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F73" s="37"/>
       <c r="G73" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="22" t="s">
         <v>89</v>
       </c>
@@ -2611,17 +2493,15 @@
         <v>1</v>
       </c>
       <c r="E74" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F74" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F74" s="37"/>
       <c r="G74" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="22" t="s">
         <v>88</v>
       </c>
@@ -2632,17 +2512,15 @@
         <v>1</v>
       </c>
       <c r="E75" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F75" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F75" s="37"/>
       <c r="G75" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="22" t="s">
         <v>87</v>
       </c>
@@ -2653,17 +2531,15 @@
         <v>1</v>
       </c>
       <c r="E76" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F76" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F76" s="37"/>
       <c r="G76" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="22" t="s">
         <v>86</v>
       </c>
@@ -2674,17 +2550,15 @@
         <v>1</v>
       </c>
       <c r="E77" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F77" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F77" s="37"/>
       <c r="G77" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="22" t="s">
         <v>85</v>
       </c>
@@ -2695,17 +2569,15 @@
         <v>1</v>
       </c>
       <c r="E78" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F78" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F78" s="37"/>
       <c r="G78" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="22" t="s">
         <v>84</v>
       </c>
@@ -2716,17 +2588,15 @@
         <v>1</v>
       </c>
       <c r="E79" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F79" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F79" s="37"/>
       <c r="G79" s="21">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="22" t="s">
         <v>83</v>
       </c>
@@ -2737,17 +2607,15 @@
         <v>1</v>
       </c>
       <c r="E80" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F80" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F80" s="37"/>
       <c r="G80" s="21">
         <f t="shared" ref="G80:G104" si="1">(E80*D80)-(E80*F80)</f>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="22" t="s">
         <v>82</v>
       </c>
@@ -2758,17 +2626,15 @@
         <v>1</v>
       </c>
       <c r="E81" s="21">
-        <v>99000</v>
-      </c>
-      <c r="F81" s="37">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F81" s="37"/>
       <c r="G81" s="21">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="22" t="s">
         <v>101</v>
       </c>
@@ -2779,17 +2645,15 @@
         <v>1</v>
       </c>
       <c r="E82" s="21">
-        <v>105000</v>
-      </c>
-      <c r="F82" s="37">
-        <v>0.2</v>
-      </c>
+        <v>50685</v>
+      </c>
+      <c r="F82" s="37"/>
       <c r="G82" s="21">
         <f t="shared" si="1"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7">
+        <v>50685</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="22" t="s">
         <v>100</v>
       </c>
@@ -2800,17 +2664,15 @@
         <v>1</v>
       </c>
       <c r="E83" s="21">
-        <v>105000</v>
-      </c>
-      <c r="F83" s="37">
-        <v>0.2</v>
-      </c>
+        <v>50685</v>
+      </c>
+      <c r="F83" s="37"/>
       <c r="G83" s="21">
         <f t="shared" si="1"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
+        <v>50685</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="22" t="s">
         <v>99</v>
       </c>
@@ -2821,17 +2683,15 @@
         <v>1</v>
       </c>
       <c r="E84" s="21">
-        <v>105000</v>
-      </c>
-      <c r="F84" s="37">
-        <v>0.2</v>
-      </c>
+        <v>50685</v>
+      </c>
+      <c r="F84" s="37"/>
       <c r="G84" s="21">
         <f t="shared" si="1"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
+        <v>50685</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="22" t="s">
         <v>98</v>
       </c>
@@ -2842,17 +2702,15 @@
         <v>1</v>
       </c>
       <c r="E85" s="21">
-        <v>105000</v>
-      </c>
-      <c r="F85" s="37">
-        <v>0.2</v>
-      </c>
+        <v>50685</v>
+      </c>
+      <c r="F85" s="37"/>
       <c r="G85" s="21">
         <f t="shared" si="1"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7">
+        <v>50685</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="22" t="s">
         <v>97</v>
       </c>
@@ -2863,17 +2721,15 @@
         <v>1</v>
       </c>
       <c r="E86" s="21">
-        <v>105000</v>
-      </c>
-      <c r="F86" s="37">
-        <v>0.2</v>
-      </c>
+        <v>50685</v>
+      </c>
+      <c r="F86" s="37"/>
       <c r="G86" s="21">
         <f t="shared" si="1"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7">
+        <v>50685</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="20" t="s">
         <v>96</v>
       </c>
@@ -2884,17 +2740,15 @@
         <v>1</v>
       </c>
       <c r="E87" s="21">
-        <v>105000</v>
-      </c>
-      <c r="F87" s="37">
-        <v>0.2</v>
-      </c>
+        <v>50685</v>
+      </c>
+      <c r="F87" s="37"/>
       <c r="G87" s="21">
         <f t="shared" si="1"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7">
+        <v>50685</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="20" t="s">
         <v>95</v>
       </c>
@@ -2905,17 +2759,15 @@
         <v>1</v>
       </c>
       <c r="E88" s="21">
-        <v>105000</v>
-      </c>
-      <c r="F88" s="37">
-        <v>0.2</v>
-      </c>
+        <v>50685</v>
+      </c>
+      <c r="F88" s="37"/>
       <c r="G88" s="21">
         <f t="shared" si="1"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7">
+        <v>50685</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="20" t="s">
         <v>94</v>
       </c>
@@ -2926,17 +2778,15 @@
         <v>1</v>
       </c>
       <c r="E89" s="21">
-        <v>105000</v>
-      </c>
-      <c r="F89" s="37">
-        <v>0.2</v>
-      </c>
+        <v>50685</v>
+      </c>
+      <c r="F89" s="37"/>
       <c r="G89" s="21">
         <f t="shared" si="1"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7">
+        <v>50685</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="20" t="s">
         <v>93</v>
       </c>
@@ -2947,17 +2797,15 @@
         <v>1</v>
       </c>
       <c r="E90" s="21">
-        <v>105000</v>
-      </c>
-      <c r="F90" s="37">
-        <v>0.2</v>
-      </c>
+        <v>50685</v>
+      </c>
+      <c r="F90" s="37"/>
       <c r="G90" s="21">
         <f t="shared" si="1"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7">
+        <v>50685</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="20" t="s">
         <v>92</v>
       </c>
@@ -2968,17 +2816,15 @@
         <v>1</v>
       </c>
       <c r="E91" s="21">
-        <v>105000</v>
-      </c>
-      <c r="F91" s="37">
-        <v>0.2</v>
-      </c>
+        <v>50685</v>
+      </c>
+      <c r="F91" s="37"/>
       <c r="G91" s="21">
         <f t="shared" si="1"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7">
+        <v>50685</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="20" t="s">
         <v>102</v>
       </c>
@@ -2989,17 +2835,15 @@
         <v>1</v>
       </c>
       <c r="E92" s="21">
-        <v>75000</v>
-      </c>
-      <c r="F92" s="37">
-        <v>0.2</v>
-      </c>
+        <v>31388</v>
+      </c>
+      <c r="F92" s="37"/>
       <c r="G92" s="21">
         <f t="shared" si="1"/>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7">
+        <v>31388</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="22" t="s">
         <v>103</v>
       </c>
@@ -3010,17 +2854,15 @@
         <v>1</v>
       </c>
       <c r="E93" s="21">
-        <v>75000</v>
-      </c>
-      <c r="F93" s="37">
-        <v>0.2</v>
-      </c>
+        <v>31388</v>
+      </c>
+      <c r="F93" s="37"/>
       <c r="G93" s="21">
         <f t="shared" si="1"/>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7">
+        <v>31388</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="20" t="s">
         <v>104</v>
       </c>
@@ -3031,17 +2873,15 @@
         <v>1</v>
       </c>
       <c r="E94" s="21">
-        <v>80000</v>
-      </c>
-      <c r="F94" s="37">
-        <v>0.2</v>
-      </c>
+        <v>36038</v>
+      </c>
+      <c r="F94" s="37"/>
       <c r="G94" s="21">
         <f t="shared" si="1"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7">
+        <v>36038</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="20" t="s">
         <v>105</v>
       </c>
@@ -3052,17 +2892,15 @@
         <v>1</v>
       </c>
       <c r="E95" s="21">
-        <v>80000</v>
-      </c>
-      <c r="F95" s="37">
-        <v>0.2</v>
-      </c>
+        <v>36038</v>
+      </c>
+      <c r="F95" s="37"/>
       <c r="G95" s="21">
         <f t="shared" si="1"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7">
+        <v>36038</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="20" t="s">
         <v>106</v>
       </c>
@@ -3073,17 +2911,15 @@
         <v>1</v>
       </c>
       <c r="E96" s="21">
-        <v>80000</v>
-      </c>
-      <c r="F96" s="37">
-        <v>0.2</v>
-      </c>
+        <v>36038</v>
+      </c>
+      <c r="F96" s="37"/>
       <c r="G96" s="21">
         <f t="shared" si="1"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7">
+        <v>36038</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="20" t="s">
         <v>107</v>
       </c>
@@ -3094,17 +2930,15 @@
         <v>1</v>
       </c>
       <c r="E97" s="21">
-        <v>80000</v>
-      </c>
-      <c r="F97" s="37">
-        <v>0.2</v>
-      </c>
+        <v>36038</v>
+      </c>
+      <c r="F97" s="37"/>
       <c r="G97" s="21">
         <f t="shared" si="1"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7">
+        <v>36038</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="20" t="s">
         <v>108</v>
       </c>
@@ -3115,17 +2949,15 @@
         <v>1</v>
       </c>
       <c r="E98" s="21">
-        <v>80000</v>
-      </c>
-      <c r="F98" s="37">
-        <v>0.2</v>
-      </c>
+        <v>36038</v>
+      </c>
+      <c r="F98" s="37"/>
       <c r="G98" s="21">
         <f t="shared" si="1"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7">
+        <v>36038</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="20" t="s">
         <v>109</v>
       </c>
@@ -3136,17 +2968,15 @@
         <v>1</v>
       </c>
       <c r="E99" s="21">
-        <v>80000</v>
-      </c>
-      <c r="F99" s="37">
-        <v>0.2</v>
-      </c>
+        <v>36038</v>
+      </c>
+      <c r="F99" s="37"/>
       <c r="G99" s="21">
         <f t="shared" si="1"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7">
+        <v>36038</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="20" t="s">
         <v>110</v>
       </c>
@@ -3157,17 +2987,15 @@
         <v>1</v>
       </c>
       <c r="E100" s="21">
-        <v>80000</v>
-      </c>
-      <c r="F100" s="37">
-        <v>0.2</v>
-      </c>
+        <v>36038</v>
+      </c>
+      <c r="F100" s="37"/>
       <c r="G100" s="21">
         <f t="shared" si="1"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7">
+        <v>36038</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="20" t="s">
         <v>111</v>
       </c>
@@ -3178,17 +3006,15 @@
         <v>1</v>
       </c>
       <c r="E101" s="21">
-        <v>80000</v>
-      </c>
-      <c r="F101" s="37">
-        <v>0.2</v>
-      </c>
+        <v>36038</v>
+      </c>
+      <c r="F101" s="37"/>
       <c r="G101" s="21">
         <f t="shared" si="1"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7">
+        <v>36038</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="22" t="s">
         <v>112</v>
       </c>
@@ -3199,17 +3025,15 @@
         <v>1</v>
       </c>
       <c r="E102" s="21">
-        <v>80000</v>
-      </c>
-      <c r="F102" s="37">
-        <v>0.2</v>
-      </c>
+        <v>36038</v>
+      </c>
+      <c r="F102" s="37"/>
       <c r="G102" s="21">
         <f t="shared" si="1"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7">
+        <v>36038</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="22" t="s">
         <v>113</v>
       </c>
@@ -3220,17 +3044,15 @@
         <v>1</v>
       </c>
       <c r="E103" s="21">
-        <v>80000</v>
-      </c>
-      <c r="F103" s="37">
-        <v>0.2</v>
-      </c>
+        <v>36038</v>
+      </c>
+      <c r="F103" s="37"/>
       <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7">
+        <v>36038</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="20" t="s">
         <v>114</v>
       </c>
@@ -3241,17 +3063,15 @@
         <v>1</v>
       </c>
       <c r="E104" s="21">
-        <v>80000</v>
-      </c>
-      <c r="F104" s="37">
-        <v>0.2</v>
-      </c>
+        <v>36038</v>
+      </c>
+      <c r="F104" s="37"/>
       <c r="G104" s="21">
         <f t="shared" si="1"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7">
+        <v>36038</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E106" s="32" t="s">
         <v>17</v>
       </c>
@@ -3262,7 +3082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E107" s="34">
         <f>COUNT(D15:D104)</f>
         <v>90</v>
@@ -3273,10 +3093,10 @@
       </c>
       <c r="G107" s="36">
         <f>SUM(G15:G104)</f>
-        <v>6524800</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7">
+        <v>3707925</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="25"/>
       <c r="C109" s="26"/>
       <c r="D109" s="26"/>
@@ -3284,36 +3104,36 @@
       <c r="F109" s="26"/>
       <c r="G109" s="27"/>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E110" s="4"/>
       <c r="G110" s="29"/>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="30"/>
       <c r="E111" s="4"/>
       <c r="G111" s="29"/>
     </row>
-    <row r="112" spans="2:7">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E112" s="4"/>
       <c r="G112" s="29"/>
     </row>
-    <row r="113" spans="2:8" ht="33" customHeight="1">
+    <row r="113" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="30"/>
       <c r="E113" s="4"/>
       <c r="G113" s="29"/>
     </row>
-    <row r="114" spans="2:8" ht="32.25" customHeight="1">
+    <row r="114" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="30"/>
       <c r="E114" s="4"/>
       <c r="G114" s="29"/>
     </row>
-    <row r="115" spans="2:8">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" s="30" t="s">
         <v>14</v>
       </c>
@@ -3323,35 +3143,35 @@
       <c r="F115" s="24"/>
       <c r="G115" s="29"/>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" s="30"/>
       <c r="E116" s="4"/>
       <c r="G116" s="29"/>
     </row>
-    <row r="117" spans="2:8">
-      <c r="B117" s="42" t="s">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B117" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="42"/>
-      <c r="D117" s="42"/>
-      <c r="E117" s="42"/>
-      <c r="F117" s="42"/>
-      <c r="G117" s="42"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="43"/>
       <c r="H117"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D10:G12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B117:G117"/>
     <mergeCell ref="D7:G8"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D10:G12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B117:G117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{D1A7B311-42A7-4137-ACCF-9B7E4DB486E9}"/>

--- a/Invoice/COM1010924.xlsx
+++ b/Invoice/COM1010924.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\SEG\docs\Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{51F8EDE2-BD27-E24A-A6D0-67CA308F39A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{A38A6FB5-0E3C-D949-A160-0604627F7152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>COMMERCIAL INVOICE</t>
   </si>
@@ -86,9 +86,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Total Books</t>
-  </si>
-  <si>
     <t>Unit (Rp.)</t>
   </si>
   <si>
@@ -381,6 +378,12 @@
   </si>
   <si>
     <t>COM1010924</t>
+  </si>
+  <si>
+    <t>Courier Charge</t>
+  </si>
+  <si>
+    <t>Total Items</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -586,12 +589,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -704,23 +744,29 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -807,13 +853,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>166714</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1356518</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>136102</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -851,13 +897,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2336336</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>87966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1191,10 +1237,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94:E104"/>
+    <sheetView tabSelected="1" topLeftCell="F52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1241,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>1</v>
@@ -1251,84 +1297,84 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="42" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1351,19 +1397,19 @@
         <v>11</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="23">
         <v>9781640151482</v>
@@ -1382,7 +1428,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="23">
         <v>9781640151499</v>
@@ -1401,7 +1447,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="23">
         <v>9781640151505</v>
@@ -1420,7 +1466,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="23">
         <v>9781640151512</v>
@@ -1439,7 +1485,7 @@
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="23">
         <v>9781640151529</v>
@@ -1458,7 +1504,7 @@
     </row>
     <row r="20" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="23">
         <v>9781640151680</v>
@@ -1477,7 +1523,7 @@
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="23">
         <v>9781640151697</v>
@@ -1496,7 +1542,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="23">
         <v>9781640151703</v>
@@ -1515,7 +1561,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="23">
         <v>9781640151710</v>
@@ -1534,7 +1580,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="23">
         <v>9781640151727</v>
@@ -1553,7 +1599,7 @@
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="23">
         <v>9781640156616</v>
@@ -1572,7 +1618,7 @@
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="23">
         <v>9781640156654</v>
@@ -1591,7 +1637,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="23">
         <v>9781640156593</v>
@@ -1610,7 +1656,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="23">
         <v>9781640156678</v>
@@ -1629,7 +1675,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="23">
         <v>9781640156685</v>
@@ -1648,7 +1694,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="23">
         <v>9781640156852</v>
@@ -1667,7 +1713,7 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="23">
         <v>9781640156876</v>
@@ -1686,7 +1732,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="23">
         <v>9781640156807</v>
@@ -1705,7 +1751,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="23">
         <v>9781640156869</v>
@@ -1724,7 +1770,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="23">
         <v>9781640156838</v>
@@ -1743,7 +1789,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="23">
         <v>9781599666457</v>
@@ -1752,17 +1798,17 @@
         <v>1</v>
       </c>
       <c r="E35" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="23">
         <v>9781599666464</v>
@@ -1771,17 +1817,17 @@
         <v>1</v>
       </c>
       <c r="E36" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="23">
         <v>9781599666471</v>
@@ -1790,17 +1836,17 @@
         <v>1</v>
       </c>
       <c r="E37" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="23">
         <v>9781599666525</v>
@@ -1809,17 +1855,17 @@
         <v>1</v>
       </c>
       <c r="E38" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="23">
         <v>9781599666532</v>
@@ -1828,17 +1874,17 @@
         <v>1</v>
       </c>
       <c r="E39" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="23">
         <v>9781599666549</v>
@@ -1847,17 +1893,17 @@
         <v>1</v>
       </c>
       <c r="E40" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="23">
         <v>9781599666624</v>
@@ -1866,17 +1912,17 @@
         <v>1</v>
       </c>
       <c r="E41" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="23">
         <v>9781599666723</v>
@@ -1885,17 +1931,17 @@
         <v>1</v>
       </c>
       <c r="E42" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="23">
         <v>9781599666730</v>
@@ -1904,17 +1950,17 @@
         <v>1</v>
       </c>
       <c r="E43" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="23">
         <v>9781599666747</v>
@@ -1923,17 +1969,17 @@
         <v>1</v>
       </c>
       <c r="E44" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="23">
         <v>9781599666754</v>
@@ -1942,17 +1988,17 @@
         <v>1</v>
       </c>
       <c r="E45" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="23">
         <v>9781599666792</v>
@@ -1961,17 +2007,17 @@
         <v>1</v>
       </c>
       <c r="E46" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="23">
         <v>9781599666822</v>
@@ -1980,17 +2026,17 @@
         <v>1</v>
       </c>
       <c r="E47" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="23">
         <v>9781599666846</v>
@@ -1999,17 +2045,17 @@
         <v>1</v>
       </c>
       <c r="E48" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="23">
         <v>9781599666853</v>
@@ -2018,17 +2064,17 @@
         <v>1</v>
       </c>
       <c r="E49" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="23">
         <v>9781599666860</v>
@@ -2037,17 +2083,17 @@
         <v>1</v>
       </c>
       <c r="E50" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="23">
         <v>9781599666877</v>
@@ -2056,17 +2102,17 @@
         <v>1</v>
       </c>
       <c r="E51" s="21">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="21">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="23">
         <v>9781599661667</v>
@@ -2085,7 +2131,7 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="23">
         <v>9781599661698</v>
@@ -2104,7 +2150,7 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="23">
         <v>9781599661728</v>
@@ -2123,7 +2169,7 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="23">
         <v>9781599661759</v>
@@ -2142,7 +2188,7 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="23">
         <v>9781599661780</v>
@@ -2161,7 +2207,7 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="23">
         <v>9781599661810</v>
@@ -2180,7 +2226,7 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="23">
         <v>9781599661872</v>
@@ -2199,7 +2245,7 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="23">
         <v>9781599661841</v>
@@ -2218,7 +2264,7 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="23">
         <v>9781599661902</v>
@@ -2237,7 +2283,7 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="23">
         <v>9781599661933</v>
@@ -2256,7 +2302,7 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="23">
         <v>9781599661964</v>
@@ -2275,7 +2321,7 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="23">
         <v>9781599661995</v>
@@ -2294,7 +2340,7 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="23">
         <v>9781599662022</v>
@@ -2313,7 +2359,7 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="23">
         <v>9781599662053</v>
@@ -2332,7 +2378,7 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="23">
         <v>9781599662114</v>
@@ -2351,7 +2397,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" s="23">
         <v>9781599662145</v>
@@ -2370,7 +2416,7 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="23">
         <v>9781599662176</v>
@@ -2389,7 +2435,7 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="23">
         <v>9781599662084</v>
@@ -2408,7 +2454,7 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="23">
         <v>9781599662206</v>
@@ -2427,7 +2473,7 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="23">
         <v>9781599662237</v>
@@ -2446,7 +2492,7 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" s="23">
         <v>9781599662268</v>
@@ -2465,7 +2511,7 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="23">
         <v>9781599662299</v>
@@ -2484,7 +2530,7 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C74" s="23">
         <v>9781599662329</v>
@@ -2503,7 +2549,7 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" s="23">
         <v>9781599662350</v>
@@ -2522,7 +2568,7 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" s="23">
         <v>9781599662381</v>
@@ -2541,7 +2587,7 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="23">
         <v>9781599662473</v>
@@ -2560,7 +2606,7 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" s="23">
         <v>9781599662411</v>
@@ -2579,7 +2625,7 @@
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" s="23">
         <v>9781599662503</v>
@@ -2598,7 +2644,7 @@
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="23">
         <v>9781599662534</v>
@@ -2611,13 +2657,13 @@
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="21">
-        <f t="shared" ref="G80:G104" si="1">(E80*D80)-(E80*F80)</f>
+        <f t="shared" ref="G80:G105" si="1">(E80*D80)-(E80*F80)</f>
         <v>45105</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" s="23">
         <v>9781599662442</v>
@@ -2636,7 +2682,7 @@
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="23">
         <v>9781599662565</v>
@@ -2655,7 +2701,7 @@
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83" s="23">
         <v>9781599662596</v>
@@ -2674,7 +2720,7 @@
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" s="23">
         <v>9781599662626</v>
@@ -2693,7 +2739,7 @@
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" s="23">
         <v>9781599662657</v>
@@ -2712,7 +2758,7 @@
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C86" s="23">
         <v>9781599662688</v>
@@ -2731,7 +2777,7 @@
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" s="23">
         <v>9781599662770</v>
@@ -2750,7 +2796,7 @@
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="23">
         <v>9781599662718</v>
@@ -2769,7 +2815,7 @@
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C89" s="23">
         <v>9781599662749</v>
@@ -2788,7 +2834,7 @@
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="23">
         <v>9781599662831</v>
@@ -2807,7 +2853,7 @@
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="23">
         <v>9781599662800</v>
@@ -2826,7 +2872,7 @@
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C92" s="23">
         <v>9781613525838</v>
@@ -2835,17 +2881,17 @@
         <v>1</v>
       </c>
       <c r="E92" s="21">
-        <v>31388</v>
+        <v>31465</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="21">
         <f t="shared" si="1"/>
-        <v>31388</v>
+        <v>31465</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C93" s="23">
         <v>9781613525739</v>
@@ -2854,17 +2900,17 @@
         <v>1</v>
       </c>
       <c r="E93" s="21">
-        <v>31388</v>
+        <v>31465</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="21">
         <f t="shared" si="1"/>
-        <v>31388</v>
+        <v>31465</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94" s="23">
         <v>9781613525944</v>
@@ -2873,17 +2919,17 @@
         <v>1</v>
       </c>
       <c r="E94" s="21">
-        <v>36038</v>
+        <v>36115</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="21">
         <f t="shared" si="1"/>
-        <v>36038</v>
+        <v>36115</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95" s="23">
         <v>9781613525951</v>
@@ -2892,17 +2938,17 @@
         <v>1</v>
       </c>
       <c r="E95" s="21">
-        <v>36038</v>
+        <v>36115</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="21">
         <f t="shared" si="1"/>
-        <v>36038</v>
+        <v>36115</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="23">
         <v>9781613526071</v>
@@ -2911,17 +2957,17 @@
         <v>1</v>
       </c>
       <c r="E96" s="21">
-        <v>36038</v>
+        <v>36115</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="21">
         <f t="shared" si="1"/>
-        <v>36038</v>
+        <v>36115</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C97" s="23">
         <v>9781613526088</v>
@@ -2930,17 +2976,17 @@
         <v>1</v>
       </c>
       <c r="E97" s="21">
-        <v>36038</v>
+        <v>36115</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="21">
         <f t="shared" si="1"/>
-        <v>36038</v>
+        <v>36115</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C98" s="23">
         <v>9781613526095</v>
@@ -2949,17 +2995,17 @@
         <v>1</v>
       </c>
       <c r="E98" s="21">
-        <v>36038</v>
+        <v>36115</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="21">
         <f t="shared" si="1"/>
-        <v>36038</v>
+        <v>36115</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C99" s="23">
         <v>9781613526163</v>
@@ -2968,17 +3014,17 @@
         <v>1</v>
       </c>
       <c r="E99" s="21">
-        <v>36038</v>
+        <v>36115</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="21">
         <f t="shared" si="1"/>
-        <v>36038</v>
+        <v>36115</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C100" s="23">
         <v>9781613526200</v>
@@ -2987,17 +3033,17 @@
         <v>1</v>
       </c>
       <c r="E100" s="21">
-        <v>36038</v>
+        <v>36115</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="21">
         <f t="shared" si="1"/>
-        <v>36038</v>
+        <v>36115</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C101" s="23">
         <v>9781613526316</v>
@@ -3006,17 +3052,17 @@
         <v>1</v>
       </c>
       <c r="E101" s="21">
-        <v>36038</v>
+        <v>36115</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="21">
         <f t="shared" si="1"/>
-        <v>36038</v>
+        <v>36115</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C102" s="23">
         <v>9781613526255</v>
@@ -3025,17 +3071,17 @@
         <v>1</v>
       </c>
       <c r="E102" s="21">
-        <v>36038</v>
+        <v>36115</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="21">
         <f t="shared" si="1"/>
-        <v>36038</v>
+        <v>36115</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C103" s="23">
         <v>9781613526149</v>
@@ -3044,17 +3090,17 @@
         <v>1</v>
       </c>
       <c r="E103" s="21">
-        <v>36038</v>
+        <v>36115</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>36038</v>
+        <v>36115</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C104" s="23">
         <v>9781613526347</v>
@@ -3063,115 +3109,134 @@
         <v>1</v>
       </c>
       <c r="E104" s="21">
-        <v>36038</v>
+        <v>36115</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="21">
+        <f t="shared" ref="G104" si="2">(E104*D104)-(E104*F104)</f>
+        <v>36115</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="23">
+        <v>7000000000064</v>
+      </c>
+      <c r="D105" s="23">
+        <v>1</v>
+      </c>
+      <c r="E105" s="21">
+        <v>1348500</v>
+      </c>
+      <c r="F105" s="37"/>
+      <c r="G105" s="21">
         <f t="shared" si="1"/>
-        <v>36038</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E106" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" s="32" t="s">
+        <v>1348500</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E107" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F107" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="33" t="s">
+      <c r="G107" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E107" s="34">
-        <f>COUNT(D15:D104)</f>
-        <v>90</v>
-      </c>
-      <c r="F107" s="35">
-        <f>SUM(D15:D104)</f>
-        <v>90</v>
-      </c>
-      <c r="G107" s="36">
-        <f>SUM(G15:G104)</f>
-        <v>3707925</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B109" s="25"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="27"/>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E108" s="34">
+        <f>COUNT(D15:D105)</f>
+        <v>91</v>
+      </c>
+      <c r="F108" s="35">
+        <f>SUM(D15:D105)</f>
+        <v>91</v>
+      </c>
+      <c r="G108" s="36">
+        <f>SUM(G15:G105)</f>
+        <v>5058735</v>
+      </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B110" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="4"/>
-      <c r="G110" s="29"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="27"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B111" s="30"/>
+      <c r="B111" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="E111" s="4"/>
       <c r="G111" s="29"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B112" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="B112" s="30"/>
       <c r="E112" s="4"/>
       <c r="G112" s="29"/>
     </row>
-    <row r="113" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="30"/>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="E113" s="4"/>
       <c r="G113" s="29"/>
     </row>
-    <row r="114" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="30"/>
       <c r="E114" s="4"/>
       <c r="G114" s="29"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="30" t="s">
+    <row r="115" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="30"/>
+      <c r="E115" s="4"/>
+      <c r="G115" s="29"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="29"/>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="30"/>
-      <c r="E116" s="4"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
       <c r="G116" s="29"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="43" t="s">
+      <c r="B117" s="30"/>
+      <c r="E117" s="4"/>
+      <c r="G117" s="29"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B118" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="43"/>
-      <c r="D117" s="43"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="43"/>
-      <c r="G117" s="43"/>
-      <c r="H117"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="40"/>
+      <c r="H118"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D10:G12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B117:G117"/>
     <mergeCell ref="D7:G8"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D10:G12"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{D1A7B311-42A7-4137-ACCF-9B7E4DB486E9}"/>
